--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H2">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I2">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J2">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>3739.203836007563</v>
+        <v>3784.124868606216</v>
       </c>
       <c r="R2">
-        <v>22435.22301604538</v>
+        <v>22704.7492116373</v>
       </c>
       <c r="S2">
-        <v>0.1113538246260929</v>
+        <v>0.02430071583097184</v>
       </c>
       <c r="T2">
-        <v>0.07962069164677799</v>
+        <v>0.01656213904724151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H3">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I3">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J3">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>1.21606802968</v>
+        <v>6.760563555754</v>
       </c>
       <c r="R3">
-        <v>4.86427211872</v>
+        <v>27.042254223016</v>
       </c>
       <c r="S3">
-        <v>3.6214614674489E-05</v>
+        <v>4.341467037426627E-05</v>
       </c>
       <c r="T3">
-        <v>1.726288658568872E-05</v>
+        <v>1.972616259345802E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H4">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I4">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J4">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>3.828968278383333</v>
+        <v>3249.999370925927</v>
       </c>
       <c r="R4">
-        <v>22.9738096703</v>
+        <v>19499.99622555556</v>
       </c>
       <c r="S4">
-        <v>0.0001140270177475043</v>
+        <v>0.02087069372866584</v>
       </c>
       <c r="T4">
-        <v>8.153208971457554E-05</v>
+        <v>0.01422440943513272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H5">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I5">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J5">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>2626.656344017839</v>
+        <v>2576.838422651264</v>
       </c>
       <c r="R5">
-        <v>15759.93806410703</v>
+        <v>15461.03053590759</v>
       </c>
       <c r="S5">
-        <v>0.07822206082166236</v>
+        <v>0.01654782028222081</v>
       </c>
       <c r="T5">
-        <v>0.05593067508520669</v>
+        <v>0.01127815749746758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>65.250653</v>
       </c>
       <c r="I6">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J6">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>2733.982713003375</v>
+        <v>3948.887825742444</v>
       </c>
       <c r="R6">
-        <v>24605.84441703037</v>
+        <v>35539.990431682</v>
       </c>
       <c r="S6">
-        <v>0.0814182496880418</v>
+        <v>0.02535878287153247</v>
       </c>
       <c r="T6">
-        <v>0.08732404173721925</v>
+        <v>0.02592489605502686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J7">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>0.8891488982133333</v>
+        <v>7.054922352577667</v>
       </c>
       <c r="R7">
-        <v>5.33489338928</v>
+        <v>42.329534115466</v>
       </c>
       <c r="S7">
-        <v>2.647893370366423E-05</v>
+        <v>4.530496990779974E-05</v>
       </c>
       <c r="T7">
-        <v>1.893308130757197E-05</v>
+        <v>3.087757646166687E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J8">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>2.799615517327778</v>
+        <v>3391.506198960876</v>
       </c>
       <c r="R8">
-        <v>25.19653965595</v>
+        <v>30523.55579064788</v>
       </c>
       <c r="S8">
-        <v>8.337280047023763E-05</v>
+        <v>0.02177941564869224</v>
       </c>
       <c r="T8">
-        <v>8.94203687245464E-05</v>
+        <v>0.02226562251398189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J9">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>1920.524623020549</v>
+        <v>2689.03543869071</v>
       </c>
       <c r="R9">
-        <v>17284.72160718494</v>
+        <v>24201.31894821639</v>
       </c>
       <c r="S9">
-        <v>0.05719339502236509</v>
+        <v>0.01726832182446029</v>
       </c>
       <c r="T9">
-        <v>0.06134200173993443</v>
+        <v>0.01765382237041217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H10">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I10">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J10">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>3897.171734375315</v>
+        <v>6926.43031956678</v>
       </c>
       <c r="R10">
-        <v>35074.54560937783</v>
+        <v>62337.87287610102</v>
       </c>
       <c r="S10">
-        <v>0.116058122766249</v>
+        <v>0.04447982578883954</v>
       </c>
       <c r="T10">
-        <v>0.1244765687694679</v>
+        <v>0.04547279993535756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H11">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I11">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J11">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>1.267442525253333</v>
+        <v>12.37447864852833</v>
       </c>
       <c r="R11">
-        <v>7.60465515152</v>
+        <v>74.24687189117</v>
       </c>
       <c r="S11">
-        <v>3.774455174698492E-05</v>
+        <v>7.946584735853966E-05</v>
       </c>
       <c r="T11">
-        <v>2.698827207851772E-05</v>
+        <v>5.415990305032791E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H12">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I12">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J12">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>3.990728401227778</v>
+        <v>5948.771502787539</v>
       </c>
       <c r="R12">
-        <v>35.91655561105</v>
+        <v>53538.94352508785</v>
       </c>
       <c r="S12">
-        <v>0.0001188442486717077</v>
+        <v>0.0382015421932596</v>
       </c>
       <c r="T12">
-        <v>0.000127464790400191</v>
+        <v>0.03905435901711826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H13">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I13">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J13">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>2737.623116784591</v>
+        <v>4716.623367095787</v>
       </c>
       <c r="R13">
-        <v>24638.60805106132</v>
+        <v>42449.61030386209</v>
       </c>
       <c r="S13">
-        <v>0.08152666123820071</v>
+        <v>0.03028899100989038</v>
       </c>
       <c r="T13">
-        <v>0.08744031707803221</v>
+        <v>0.03096516688206488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H14">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I14">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J14">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>255.9769714780617</v>
+        <v>187.45818360183</v>
       </c>
       <c r="R14">
-        <v>1535.86182886837</v>
+        <v>1124.74910161098</v>
       </c>
       <c r="S14">
-        <v>0.007623017102143563</v>
+        <v>0.001203810182822024</v>
       </c>
       <c r="T14">
-        <v>0.005450642545470903</v>
+        <v>0.0008204561451219698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H15">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I15">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J15">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.08324911532000001</v>
+        <v>0.3349051652075</v>
       </c>
       <c r="R15">
-        <v>0.33299646128</v>
+        <v>1.33962066083</v>
       </c>
       <c r="S15">
-        <v>2.47916609903743E-06</v>
+        <v>2.150678302809209E-06</v>
       </c>
       <c r="T15">
-        <v>1.181776019970075E-06</v>
+        <v>9.771957156810216E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H16">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I16">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J16">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>0.2621220309916667</v>
+        <v>160.9986456406925</v>
       </c>
       <c r="R16">
-        <v>1.57273218595</v>
+        <v>965.991873844155</v>
       </c>
       <c r="S16">
-        <v>7.806017523999541E-06</v>
+        <v>0.001033893561320778</v>
       </c>
       <c r="T16">
-        <v>5.581492295883613E-06</v>
+        <v>0.0007046495684221018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H17">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I17">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J17">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N17">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O17">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P17">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q17">
-        <v>179.8146251297235</v>
+        <v>127.65156196432</v>
       </c>
       <c r="R17">
-        <v>1078.887750778341</v>
+        <v>765.90937178592</v>
       </c>
       <c r="S17">
-        <v>0.005354895616838304</v>
+        <v>0.0008197468213614167</v>
       </c>
       <c r="T17">
-        <v>0.003828880544881247</v>
+        <v>0.0005586979796544974</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H18">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I18">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J18">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N18">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O18">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P18">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q18">
-        <v>2208.694903170744</v>
+        <v>43505.04374649977</v>
       </c>
       <c r="R18">
-        <v>19878.25412853669</v>
+        <v>391545.3937184979</v>
       </c>
       <c r="S18">
-        <v>0.06577513173575028</v>
+        <v>0.27937865213393</v>
       </c>
       <c r="T18">
-        <v>0.07054622730126509</v>
+        <v>0.2856155420888284</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H19">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I19">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J19">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N19">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O19">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P19">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q19">
-        <v>0.7183142125600001</v>
+        <v>77.72434141487534</v>
       </c>
       <c r="R19">
-        <v>4.30988527536</v>
+        <v>466.346048489252</v>
       </c>
       <c r="S19">
-        <v>2.13914614874915E-05</v>
+        <v>0.0004991265350522105</v>
       </c>
       <c r="T19">
-        <v>1.529541499529586E-05</v>
+        <v>0.0003401794059566999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H20">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I20">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J20">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N20">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O20">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P20">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q20">
-        <v>2.261717491683334</v>
+        <v>37364.34967599444</v>
       </c>
       <c r="R20">
-        <v>20.35545742515</v>
+        <v>336279.1470839499</v>
       </c>
       <c r="S20">
-        <v>6.735414916336304E-05</v>
+        <v>0.2399446305850464</v>
       </c>
       <c r="T20">
-        <v>7.223978107183827E-05</v>
+        <v>0.245301189666412</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H21">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I21">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J21">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N21">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O21">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P21">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q21">
-        <v>1551.528810370413</v>
+        <v>29625.20323659294</v>
       </c>
       <c r="R21">
-        <v>13963.75929333372</v>
+        <v>266626.8291293365</v>
       </c>
       <c r="S21">
-        <v>0.04620466672306016</v>
+        <v>0.1902457424858694</v>
       </c>
       <c r="T21">
-        <v>0.04955618993086034</v>
+        <v>0.1944928163091889</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H22">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I22">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J22">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N22">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O22">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P22">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q22">
-        <v>6873.398478298175</v>
+        <v>2916.883463366472</v>
       </c>
       <c r="R22">
-        <v>61860.58630468358</v>
+        <v>26251.95117029825</v>
       </c>
       <c r="S22">
-        <v>0.2046904213584896</v>
+        <v>0.01873150559681115</v>
       </c>
       <c r="T22">
-        <v>0.2195379410194201</v>
+        <v>0.01914967047163083</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H23">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I23">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J23">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N23">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O23">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P23">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q23">
-        <v>2.235374296586667</v>
+        <v>5.211185339684667</v>
       </c>
       <c r="R23">
-        <v>13.41224577952</v>
+        <v>31.267112038108</v>
       </c>
       <c r="S23">
-        <v>6.656964645756315E-05</v>
+        <v>3.346494591993907E-05</v>
       </c>
       <c r="T23">
-        <v>4.759891554178973E-05</v>
+        <v>2.280801484983591E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H24">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I24">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J24">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N24">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O24">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P24">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q24">
-        <v>7.038403331922222</v>
+        <v>2505.168235766209</v>
       </c>
       <c r="R24">
-        <v>63.34562998729999</v>
+        <v>22546.51412189588</v>
       </c>
       <c r="S24">
-        <v>0.0002096042806554796</v>
+        <v>0.01608757203314866</v>
       </c>
       <c r="T24">
-        <v>0.0002248082343011509</v>
+        <v>0.01644671334779768</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H25">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I25">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J25">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N25">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O25">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P25">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q25">
-        <v>4828.315467621365</v>
+        <v>1986.281542968022</v>
       </c>
       <c r="R25">
-        <v>43454.83920859228</v>
+        <v>17876.53388671219</v>
       </c>
       <c r="S25">
-        <v>0.1437876664127047</v>
+        <v>0.01275540977424153</v>
       </c>
       <c r="T25">
-        <v>0.154217515498427</v>
+        <v>0.01304016341051236</v>
       </c>
     </row>
   </sheetData>
